--- a/Validation/Diff_quant.xlsx
+++ b/Validation/Diff_quant.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15780" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="2" r:id="rId1"/>

--- a/Validation/Diff_quant.xlsx
+++ b/Validation/Diff_quant.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gysco/EPITECH/IRSN/SSWD/Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="2" r:id="rId1"/>
+    <sheet name="READ_ME" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>QUANT 2.5 %</t>
   </si>
@@ -75,6 +76,21 @@
   </si>
   <si>
     <t>Python</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>TestPond.xls</t>
+  </si>
+  <si>
+    <t>Mean et Std des 5 premiers tirage bootstrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why </t>
+  </si>
+  <si>
+    <t>Verification que  le calcul effectué dans python corresponde à celui de la macro origniale</t>
   </si>
 </sst>
 </file>
@@ -466,10 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1129,4 +1146,38 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>